--- a/comments.xlsx
+++ b/comments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,17 +488,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>@joetypes2014</t>
+          <t>@mostafaboras</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-01-04T20:17:45Z</t>
+          <t>2024-01-04T21:25:10Z</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-01-04T20:17:45Z</t>
+          <t>2024-01-04T21:25:10Z</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -506,24 +506,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Just if windows developers knew that it only could take them 20 minutes to write notepad</t>
+          <t>i just dont understand why did you wrote &lt;br&gt;text_editor.delete (1.0,tk.END)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>@zc7873</t>
+          <t>@joetypes2014</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-01-04T19:36:30Z</t>
+          <t>2024-01-04T20:17:45Z</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-01-04T19:36:30Z</t>
+          <t>2024-01-04T20:17:45Z</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -531,24 +531,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Very topical. I am working on a similar project but with csv files and using tkinter. Nice vid</t>
+          <t>Just if windows developers knew that it only could take them 20 minutes to write notepad</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>@garrettsmith315</t>
+          <t>@zc7873</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-01-04T18:48:49Z</t>
+          <t>2024-01-04T19:36:30Z</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-01-04T18:48:49Z</t>
+          <t>2024-01-04T19:36:30Z</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -556,24 +556,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Very unique project, would definitely stand out from others.</t>
+          <t>Very topical. I am working on a similar project but with csv files and using tkinter. Nice vid</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>@yevgeniyvasilyicbazarov1555</t>
+          <t>@garrettsmith315</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-01-04T17:51:26Z</t>
+          <t>2024-01-04T18:48:49Z</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-01-04T17:51:26Z</t>
+          <t>2024-01-04T18:48:49Z</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -581,24 +581,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>tims editors tying to understand the modules name be like:&lt;br&gt;THE WHAT!??</t>
+          <t>Very unique project, would definitely stand out from others.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>@markmilan57</t>
+          <t>@yevgeniyvasilyicbazarov1555</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-01-04T17:34:57Z</t>
+          <t>2024-01-04T17:51:26Z</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-01-04T17:34:57Z</t>
+          <t>2024-01-04T17:51:26Z</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -606,99 +606,99 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Good one. Keep on making a video daily.</t>
+          <t>tims editors tying to understand the modules name be like:&lt;br&gt;THE WHAT!??</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>@rmt3589</t>
+          <t>@markmilan57</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-01-04T17:17:24Z</t>
+          <t>2024-01-04T17:34:57Z</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-01-04T17:17:24Z</t>
+          <t>2024-01-04T17:34:57Z</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>This is awesome! I plan to incorporate a text editor into my game engine, and this is a great logic guide!&lt;br&gt;I&amp;#39;ll probably use OpenGL or Qt instead of TKinter, and write it in C++, but this is a great start!</t>
+          <t>Good one. Keep on making a video daily.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>@rverm1000</t>
+          <t>@rmt3589</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-01-04T17:14:32Z</t>
+          <t>2024-01-04T17:17:24Z</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-01-04T17:14:32Z</t>
+          <t>2024-01-04T17:17:24Z</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>They are now blocking the resolution of your videos.  At 360 it&amp;#39;s not visible</t>
+          <t>This is awesome! I plan to incorporate a text editor into my game engine, and this is a great logic guide!&lt;br&gt;I&amp;#39;ll probably use OpenGL or Qt instead of TKinter, and write it in C++, but this is a great start!</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>@carlabest1257</t>
+          <t>@rverm1000</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-01-04T17:02:18Z</t>
+          <t>2024-01-04T17:14:32Z</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-01-04T17:02:18Z</t>
+          <t>2024-01-04T17:14:32Z</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Using tkinter is like walking with boots made of lead.   Takes too long - too tough - so unnecessary.   Anything short of a visual editor is a waste of time.&lt;br&gt;This is not a reflection of the video - just the technology.  I use MS visual studio.  I can create complex windows applications in a fraction of the time it would take to use tkinter.   Don&amp;#39;t waste your time - don&amp;#39;t use tkinter unless it is for the most trivial application.</t>
+          <t>They are now blocking the resolution of your videos.  At 360 it&amp;#39;s not visible</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>@Andrew-Tsegaye</t>
+          <t>@carlabest1257</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-01-04T16:33:09Z</t>
+          <t>2024-01-04T17:02:18Z</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-01-04T16:33:09Z</t>
+          <t>2024-01-04T17:02:18Z</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -706,49 +706,49 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Tim please the next video should be an advanced AI python course for intermediate to advanced programmers.</t>
+          <t>Using tkinter is like walking with boots made of lead.   Takes too long - too tough - so unnecessary.   Anything short of a visual editor is a waste of time.&lt;br&gt;This is not a reflection of the video - just the technology.  I use MS visual studio.  I can create complex windows applications in a fraction of the time it would take to use tkinter.   Don&amp;#39;t waste your time - don&amp;#39;t use tkinter unless it is for the most trivial application.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>@peeeters420</t>
+          <t>@Andrew-Tsegaye</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-01-04T16:30:25Z</t>
+          <t>2024-01-04T16:33:09Z</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-01-04T16:30:25Z</t>
+          <t>2024-01-04T16:33:09Z</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>always fun and interesting to see your videos! Thanks for the content!</t>
+          <t>Tim please the next video should be an advanced AI python course for intermediate to advanced programmers.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>@RIFADOR001</t>
+          <t>@peeeters420</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-01-04T16:16:40Z</t>
+          <t>2024-01-04T16:30:25Z</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-01-04T16:16:40Z</t>
+          <t>2024-01-04T16:30:25Z</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -756,99 +756,99 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>tkinter is so annoying... You cannot mix some widgets but it&amp;#39;s not clear which have to be avoided...</t>
+          <t>always fun and interesting to see your videos! Thanks for the content!</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>@jordanolson11</t>
+          <t>@RIFADOR001</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-01-04T15:35:29Z</t>
+          <t>2024-01-04T16:16:40Z</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-01-04T15:35:29Z</t>
+          <t>2024-01-04T16:16:40Z</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>it&amp;#39;s so crazy, I literally was looking into a project like this, like yesterday, I was using chat GPT to step through some of the reasoning but it makes me feel like I&amp;#39;m in the truman show fr</t>
+          <t>tkinter is so annoying... You cannot mix some widgets but it&amp;#39;s not clear which have to be avoided...</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>@caw25sha</t>
+          <t>@jordanolson11</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-01-04T15:13:35Z</t>
+          <t>2024-01-04T15:35:29Z</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-01-04T15:13:35Z</t>
+          <t>2024-01-04T15:35:29Z</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Is it possible to set styles of individual parts of the text? I&amp;#39;m thinking syntax highlighting.</t>
+          <t>it&amp;#39;s so crazy, I literally was looking into a project like this, like yesterday, I was using chat GPT to step through some of the reasoning but it makes me feel like I&amp;#39;m in the truman show fr</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>@soldierboy7105</t>
+          <t>@caw25sha</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024-01-04T15:09:54Z</t>
+          <t>2024-01-04T15:13:35Z</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-01-04T15:09:54Z</t>
+          <t>2024-01-04T15:13:35Z</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Awesome</t>
+          <t>Is it possible to set styles of individual parts of the text? I&amp;#39;m thinking syntax highlighting.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>@jaybee1113</t>
+          <t>@soldierboy7105</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024-01-04T14:42:39Z</t>
+          <t>2024-01-04T15:09:54Z</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-01-04T14:42:39Z</t>
+          <t>2024-01-04T15:09:54Z</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -856,124 +856,124 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Tnx👍</t>
+          <t>Awesome</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>@PixAlphere</t>
+          <t>@jaybee1113</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-01-04T14:24:36Z</t>
+          <t>2024-01-04T14:42:39Z</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024-01-04T14:24:36Z</t>
+          <t>2024-01-04T14:42:39Z</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>i thought about making a text editor before and me before using my tiny brain thing that i need to use pygame that only does graphic for me and i need to create a whole new text system, i can&amp;#39;t belive that i never thought of use tkinter. anyway nice video i liked it and i did the project.</t>
+          <t>Tnx👍</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>@Stinosko</t>
+          <t>@PixAlphere</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024-01-04T14:15:43Z</t>
+          <t>2024-01-04T14:24:36Z</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024-01-04T14:15:43Z</t>
+          <t>2024-01-04T14:24:36Z</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>For anyone wondering, to use bold, underline and highlight you need to use text tags and specify the area you want to alter the fonts 😊</t>
+          <t>i thought about making a text editor before and me before using my tiny brain thing that i need to use pygame that only does graphic for me and i need to create a whole new text system, i can&amp;#39;t belive that i never thought of use tkinter. anyway nice video i liked it and i did the project.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>@rishiraj2548</t>
+          <t>@Stinosko</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024-01-04T14:12:48Z</t>
+          <t>2024-01-04T14:15:43Z</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024-01-04T14:12:48Z</t>
+          <t>2024-01-04T14:15:43Z</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>👍🙂👍</t>
+          <t>For anyone wondering, to use bold, underline and highlight you need to use text tags and specify the area you want to alter the fonts 😊</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>@ronelabillon2001</t>
+          <t>@rishiraj2548</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024-01-04T14:11:20Z</t>
+          <t>2024-01-04T14:12:48Z</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024-01-04T14:11:20Z</t>
+          <t>2024-01-04T14:12:48Z</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Hi, Tim. Can I do this in kivy? Then, compile as apk for mobile phone? Thank you.</t>
+          <t>👍🙂👍</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>@mileswilliams527</t>
+          <t>@ronelabillon2001</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024-01-04T14:05:58Z</t>
+          <t>2024-01-04T14:11:20Z</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024-01-04T14:05:58Z</t>
+          <t>2024-01-04T14:11:20Z</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -981,105 +981,130 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sorry for being pedantic but I do believe it’s tk inter, as in interface. It’s part of the tk GUI toolkit.</t>
+          <t>Hi, Tim. Can I do this in kivy? Then, compile as apk for mobile phone? Thank you.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>@Marlis_Schultz</t>
+          <t>@mileswilliams527</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-01-04T14:01:47Z</t>
+          <t>2024-01-04T14:05:58Z</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-01-04T14:01:47Z</t>
+          <t>2024-01-04T14:05:58Z</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>your videos are great, thank you for your efforts‍❤️❤️❤️‍</t>
+          <t>Sorry for being pedantic but I do believe it’s tk inter, as in interface. It’s part of the tk GUI toolkit.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>@Galiena_Kreutzer</t>
+          <t>@Marlis_Schultz</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024-01-04T14:01:35Z</t>
+          <t>2024-01-04T14:01:47Z</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2024-01-04T14:01:35Z</t>
+          <t>2024-01-04T14:01:47Z</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>your videos are stunning, the quality is increasing with every update🦁</t>
+          <t>your videos are great, thank you for your efforts‍❤️❤️❤️‍</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>@daminrido2269</t>
+          <t>@Galiena_Kreutzer</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024-01-04T14:01:26Z</t>
+          <t>2024-01-04T14:01:35Z</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2024-01-04T14:01:26Z</t>
+          <t>2024-01-04T14:01:35Z</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Hi</t>
+          <t>your videos are stunning, the quality is increasing with every update🦁</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>@daminrido2269</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2024-01-04T14:01:26Z</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2024-01-04T14:01:26Z</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>@RodneyKanter</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>2024-01-04T14:00:47Z</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>2024-01-04T14:00:47Z</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr">
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>How do you feel about the idea of working in theater versus film?🍓</t>
         </is>

--- a/comments.xlsx
+++ b/comments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,17 +488,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>@mostafaboras</t>
+          <t>@tahakocer4947</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-01-04T21:25:10Z</t>
+          <t>2024-01-04T22:20:38Z</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-01-04T21:25:10Z</t>
+          <t>2024-01-04T22:20:38Z</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -506,24 +506,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>i just dont understand why did you wrote &lt;br&gt;text_editor.delete (1.0,tk.END)</t>
+          <t>bu yorum projem için</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>@joetypes2014</t>
+          <t>@mostafaboras</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-01-04T20:17:45Z</t>
+          <t>2024-01-04T21:25:10Z</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-01-04T20:17:45Z</t>
+          <t>2024-01-04T21:25:10Z</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -531,24 +531,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Just if windows developers knew that it only could take them 20 minutes to write notepad</t>
+          <t>i just dont understand why did you wrote &lt;br&gt;text_editor.delete (1.0,tk.END)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>@zc7873</t>
+          <t>@joetypes2014</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-01-04T19:36:30Z</t>
+          <t>2024-01-04T20:17:45Z</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-01-04T19:36:30Z</t>
+          <t>2024-01-04T20:17:45Z</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -556,24 +556,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Very topical. I am working on a similar project but with csv files and using tkinter. Nice vid</t>
+          <t>Just if windows developers knew that it only could take them 20 minutes to write notepad</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>@garrettsmith315</t>
+          <t>@zc7873</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-01-04T18:48:49Z</t>
+          <t>2024-01-04T19:36:30Z</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-01-04T18:48:49Z</t>
+          <t>2024-01-04T19:36:30Z</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -581,24 +581,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Very unique project, would definitely stand out from others.</t>
+          <t>Very topical. I am working on a similar project but with csv files and using tkinter. Nice vid</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>@yevgeniyvasilyicbazarov1555</t>
+          <t>@garrettsmith315</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-01-04T17:51:26Z</t>
+          <t>2024-01-04T18:48:49Z</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-01-04T17:51:26Z</t>
+          <t>2024-01-04T18:48:49Z</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -606,24 +606,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>tims editors tying to understand the modules name be like:&lt;br&gt;THE WHAT!??</t>
+          <t>Very unique project, would definitely stand out from others.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>@markmilan57</t>
+          <t>@yevgeniyvasilyicbazarov1555</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-01-04T17:34:57Z</t>
+          <t>2024-01-04T17:51:26Z</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-01-04T17:34:57Z</t>
+          <t>2024-01-04T17:51:26Z</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -631,99 +631,99 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Good one. Keep on making a video daily.</t>
+          <t>tims editors tying to understand the modules name be like:&lt;br&gt;THE WHAT!??</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>@rmt3589</t>
+          <t>@markmilan57</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-01-04T17:17:24Z</t>
+          <t>2024-01-04T17:34:57Z</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-01-04T17:17:24Z</t>
+          <t>2024-01-04T17:34:57Z</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>This is awesome! I plan to incorporate a text editor into my game engine, and this is a great logic guide!&lt;br&gt;I&amp;#39;ll probably use OpenGL or Qt instead of TKinter, and write it in C++, but this is a great start!</t>
+          <t>Good one. Keep on making a video daily.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>@rverm1000</t>
+          <t>@rmt3589</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-01-04T17:14:32Z</t>
+          <t>2024-01-04T17:17:24Z</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-01-04T17:14:32Z</t>
+          <t>2024-01-04T17:17:24Z</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>They are now blocking the resolution of your videos.  At 360 it&amp;#39;s not visible</t>
+          <t>This is awesome! I plan to incorporate a text editor into my game engine, and this is a great logic guide!&lt;br&gt;I&amp;#39;ll probably use OpenGL or Qt instead of TKinter, and write it in C++, but this is a great start!</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>@carlabest1257</t>
+          <t>@rverm1000</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-01-04T17:02:18Z</t>
+          <t>2024-01-04T17:14:32Z</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-01-04T17:02:18Z</t>
+          <t>2024-01-04T17:14:32Z</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Using tkinter is like walking with boots made of lead.   Takes too long - too tough - so unnecessary.   Anything short of a visual editor is a waste of time.&lt;br&gt;This is not a reflection of the video - just the technology.  I use MS visual studio.  I can create complex windows applications in a fraction of the time it would take to use tkinter.   Don&amp;#39;t waste your time - don&amp;#39;t use tkinter unless it is for the most trivial application.</t>
+          <t>They are now blocking the resolution of your videos.  At 360 it&amp;#39;s not visible</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>@Andrew-Tsegaye</t>
+          <t>@carlabest1257</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-01-04T16:33:09Z</t>
+          <t>2024-01-04T17:02:18Z</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-01-04T16:33:09Z</t>
+          <t>2024-01-04T17:02:18Z</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -731,49 +731,49 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Tim please the next video should be an advanced AI python course for intermediate to advanced programmers.</t>
+          <t>Using tkinter is like walking with boots made of lead.   Takes too long - too tough - so unnecessary.   Anything short of a visual editor is a waste of time.&lt;br&gt;This is not a reflection of the video - just the technology.  I use MS visual studio.  I can create complex windows applications in a fraction of the time it would take to use tkinter.   Don&amp;#39;t waste your time - don&amp;#39;t use tkinter unless it is for the most trivial application.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>@peeeters420</t>
+          <t>@Andrew-Tsegaye</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-01-04T16:30:25Z</t>
+          <t>2024-01-04T16:33:09Z</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-01-04T16:30:25Z</t>
+          <t>2024-01-04T16:33:09Z</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>always fun and interesting to see your videos! Thanks for the content!</t>
+          <t>Tim please the next video should be an advanced AI python course for intermediate to advanced programmers.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>@RIFADOR001</t>
+          <t>@peeeters420</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-01-04T16:16:40Z</t>
+          <t>2024-01-04T16:30:25Z</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-01-04T16:16:40Z</t>
+          <t>2024-01-04T16:30:25Z</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -781,99 +781,99 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>tkinter is so annoying... You cannot mix some widgets but it&amp;#39;s not clear which have to be avoided...</t>
+          <t>always fun and interesting to see your videos! Thanks for the content!</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>@jordanolson11</t>
+          <t>@RIFADOR001</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-01-04T15:35:29Z</t>
+          <t>2024-01-04T16:16:40Z</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-01-04T15:35:29Z</t>
+          <t>2024-01-04T16:16:40Z</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>it&amp;#39;s so crazy, I literally was looking into a project like this, like yesterday, I was using chat GPT to step through some of the reasoning but it makes me feel like I&amp;#39;m in the truman show fr</t>
+          <t>tkinter is so annoying... You cannot mix some widgets but it&amp;#39;s not clear which have to be avoided...</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>@caw25sha</t>
+          <t>@jordanolson11</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024-01-04T15:13:35Z</t>
+          <t>2024-01-04T15:35:29Z</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-01-04T15:13:35Z</t>
+          <t>2024-01-04T15:35:29Z</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Is it possible to set styles of individual parts of the text? I&amp;#39;m thinking syntax highlighting.</t>
+          <t>it&amp;#39;s so crazy, I literally was looking into a project like this, like yesterday, I was using chat GPT to step through some of the reasoning but it makes me feel like I&amp;#39;m in the truman show fr</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>@soldierboy7105</t>
+          <t>@caw25sha</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024-01-04T15:09:54Z</t>
+          <t>2024-01-04T15:13:35Z</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-01-04T15:09:54Z</t>
+          <t>2024-01-04T15:13:35Z</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Awesome</t>
+          <t>Is it possible to set styles of individual parts of the text? I&amp;#39;m thinking syntax highlighting.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>@jaybee1113</t>
+          <t>@soldierboy7105</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-01-04T14:42:39Z</t>
+          <t>2024-01-04T15:09:54Z</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024-01-04T14:42:39Z</t>
+          <t>2024-01-04T15:09:54Z</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -881,124 +881,124 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Tnx👍</t>
+          <t>Awesome</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>@PixAlphere</t>
+          <t>@jaybee1113</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024-01-04T14:24:36Z</t>
+          <t>2024-01-04T14:42:39Z</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024-01-04T14:24:36Z</t>
+          <t>2024-01-04T14:42:39Z</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>i thought about making a text editor before and me before using my tiny brain thing that i need to use pygame that only does graphic for me and i need to create a whole new text system, i can&amp;#39;t belive that i never thought of use tkinter. anyway nice video i liked it and i did the project.</t>
+          <t>Tnx👍</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>@Stinosko</t>
+          <t>@PixAlphere</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024-01-04T14:15:43Z</t>
+          <t>2024-01-04T14:24:36Z</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024-01-04T14:15:43Z</t>
+          <t>2024-01-04T14:24:36Z</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>For anyone wondering, to use bold, underline and highlight you need to use text tags and specify the area you want to alter the fonts 😊</t>
+          <t>i thought about making a text editor before and me before using my tiny brain thing that i need to use pygame that only does graphic for me and i need to create a whole new text system, i can&amp;#39;t belive that i never thought of use tkinter. anyway nice video i liked it and i did the project.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>@rishiraj2548</t>
+          <t>@Stinosko</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024-01-04T14:12:48Z</t>
+          <t>2024-01-04T14:15:43Z</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024-01-04T14:12:48Z</t>
+          <t>2024-01-04T14:15:43Z</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>👍🙂👍</t>
+          <t>For anyone wondering, to use bold, underline and highlight you need to use text tags and specify the area you want to alter the fonts 😊</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>@ronelabillon2001</t>
+          <t>@rishiraj2548</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024-01-04T14:11:20Z</t>
+          <t>2024-01-04T14:12:48Z</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024-01-04T14:11:20Z</t>
+          <t>2024-01-04T14:12:48Z</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Hi, Tim. Can I do this in kivy? Then, compile as apk for mobile phone? Thank you.</t>
+          <t>👍🙂👍</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>@mileswilliams527</t>
+          <t>@ronelabillon2001</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-01-04T14:05:58Z</t>
+          <t>2024-01-04T14:11:20Z</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-01-04T14:05:58Z</t>
+          <t>2024-01-04T14:11:20Z</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1006,105 +1006,130 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sorry for being pedantic but I do believe it’s tk inter, as in interface. It’s part of the tk GUI toolkit.</t>
+          <t>Hi, Tim. Can I do this in kivy? Then, compile as apk for mobile phone? Thank you.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>@Marlis_Schultz</t>
+          <t>@mileswilliams527</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024-01-04T14:01:47Z</t>
+          <t>2024-01-04T14:05:58Z</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2024-01-04T14:01:47Z</t>
+          <t>2024-01-04T14:05:58Z</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>your videos are great, thank you for your efforts‍❤️❤️❤️‍</t>
+          <t>Sorry for being pedantic but I do believe it’s tk inter, as in interface. It’s part of the tk GUI toolkit.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>@Galiena_Kreutzer</t>
+          <t>@Marlis_Schultz</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024-01-04T14:01:35Z</t>
+          <t>2024-01-04T14:01:47Z</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2024-01-04T14:01:35Z</t>
+          <t>2024-01-04T14:01:47Z</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>your videos are stunning, the quality is increasing with every update🦁</t>
+          <t>your videos are great, thank you for your efforts‍❤️❤️❤️‍</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>@daminrido2269</t>
+          <t>@Galiena_Kreutzer</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024-01-04T14:01:26Z</t>
+          <t>2024-01-04T14:01:35Z</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2024-01-04T14:01:26Z</t>
+          <t>2024-01-04T14:01:35Z</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Hi</t>
+          <t>your videos are stunning, the quality is increasing with every update🦁</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>@daminrido2269</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2024-01-04T14:01:26Z</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2024-01-04T14:01:26Z</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>@RodneyKanter</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>2024-01-04T14:00:47Z</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>2024-01-04T14:00:47Z</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="inlineStr">
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>How do you feel about the idea of working in theater versus film?🍓</t>
         </is>
